--- a/biology/Botanique/Rosa_sericea/Rosa_sericea.xlsx
+++ b/biology/Botanique/Rosa_sericea/Rosa_sericea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rosier soyeux (Rosa sericea) est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier de la section des Pimpinellifoliae, originaire du sud-ouest de la Chine (Guizhou, Sichuan, Tibet, Yunnan), du Bhoutan, du nord de l'Inde (Sikkim) et du Myanmar. Il pousse en montagne à des altitudes comprises entre 2 000 et 4 400 mètres.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbrisseau qui peut atteindre deux mètres de haut, souvent très épineux. Les feuilles, caduques, ont de 4 à 8 cm de long, et sont composés de 7 à 11 folioles au bord serré. Les fleurs, de 2,5 à 5 cm de diamètre, sont blanches et, fait exceptionnel chez les rosiers, ont seulement quatre pétales. Les fruits, de 8 à 15 mm de diamètre, sont rouges à maturité et portent les quatre sépales persistants.
 </t>
@@ -542,20 +556,17 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Il existe quatre formes botaniques de cette espèce :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe quatre formes botaniques de cette espèce :
 Rosa sericea f. sericea.
 Rosa sericea f. glandulosa T.T.Yü &amp; T.C.Ku.
 Rosa sericea f. glabrescens Franchet.
 Rosa sericea f. pteracantha Franchet.
 L'espèce voisine Rosa omeiensis est parfois traitée comme une sous-espèce de Rosa sericea.
-Liste des sous-espèces et variétés
-Selon The Plant List            (8 octobre 2016)[1] :
-sous-espèce Rosa sericea subsp. omeiensis (Rolfe) A.V.Roberts
-Selon Tropicos                                           (8 octobre 2016)[2] (Attention liste brute contenant possiblement des synonymes) :
-sous-espèce Rosa sericea subsp. omeiensis (Rolfe) A.V.Roberts
-variété Rosa sericea var. morrisonensis (Hayata) Masam.</t>
+</t>
         </is>
       </c>
     </row>
@@ -580,16 +591,58 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (8 octobre 2016) :
+sous-espèce Rosa sericea subsp. omeiensis (Rolfe) A.V.Roberts
+Selon Tropicos                                           (8 octobre 2016) (Attention liste brute contenant possiblement des synonymes) :
+sous-espèce Rosa sericea subsp. omeiensis (Rolfe) A.V.Roberts
+variété Rosa sericea var. morrisonensis (Hayata) Masam.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rosa_sericea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosa_sericea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La forme Rosa sericea f. pteracantha est cultivée comme plante ornementale pour ses grands aiguillons rouges et brillants.
 Rosa sericea pteracantha attrosanguinea a des fruits noirs
 'Red Wing' hybride Rosa sericea pteracantha  × Rosa hugonis aux fleurs simples jaune crème
 'Healther Muir' créé en 1957 à longue floraison de fleurs blanches simples
-'Hildcote Gold' créé en 1948, aux bouquets de fleurs simples jaunes[3].
+'Hildcote Gold' créé en 1948, aux bouquets de fleurs simples jaunes.
 			Aiguillons.
 			Fruit avec les 4 sépales persistants.
 </t>
